--- a/biology/Médecine/Sous-secrétariat_de_la_Santé/Sous-secrétariat_de_la_Santé.xlsx
+++ b/biology/Médecine/Sous-secrétariat_de_la_Santé/Sous-secrétariat_de_la_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9tariat_de_la_Sant%C3%A9</t>
+          <t>Sous-secrétariat_de_la_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sous-secrétariat de la Santé (en espagnol : Subsecretaría de Sanidad) est un organe dirigeant de l'administration du ministère de la Santé d'Espagne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sous-secr%C3%A9tariat_de_la_Sant%C3%A9</t>
+          <t>Sous-secrétariat_de_la_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fonctions
-Le sous-secrétaire de la Santé exerce la représentation ordinaire du ministère, dont il dirige les services généraux et exerce les compétences correspondant à ces derniers ; dirige, impulse et supervise les organes de direction et, le cas échéant, les organismes publics qui dépendent de lui. Il est également chargé de la coordination des actions du ministère en lien avec les dossiers soumis aux organes collégiaux du gouvernement[1],[2].
-Organisation
-Le sous-secrétariat s'organise de la manière suivante[2] : 
+          <t>Fonctions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-secrétaire de la Santé exerce la représentation ordinaire du ministère, dont il dirige les services généraux et exerce les compétences correspondant à ces derniers ; dirige, impulse et supervise les organes de direction et, le cas échéant, les organismes publics qui dépendent de lui. Il est également chargé de la coordination des actions du ministère en lien avec les dossiers soumis aux organes collégiaux du gouvernement,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sous-secrétariat_de_la_Santé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sous-secr%C3%A9tariat_de_la_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le sous-secrétariat s'organise de la manière suivante : 
 Secrétariat général technique (Secretaría General Técnica) ;
 Cabinet technique ;
 Sous-direction générale des Ressources humaines et de l'Inspection des services ;
@@ -528,31 +580,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sous-secr%C3%A9tariat_de_la_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sous-secrétariat_de_la_Santé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sous-secr%C3%A9tariat_de_la_Sant%C3%A9</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Titulaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
